--- a/biology/Médecine/1625_en_santé_et_médecine/1625_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1625_en_santé_et_médecine/1625_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1625_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1625_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1625 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1625_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1625_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>27 mars : Jacques Stuart, roi d'Écosse et d'Angleterre, meurt atteint de porphyrie congénitale selon certains auteurs, mais, selon d'autres, plus probablement affecté de coliques néphrétiques dues aux calculs rénaux que l'autopsie révélera[1],[2],[3].
-1625-1638 : En France, notamment en Anjou[4], en Bretagne[5], en Normandie, dans le Lyonnais, en Bourgogne et à Marseille, « associée à la guerre et à la disette, la peste fait de terribles ravages dans les villes et les campagnes[6] ».
-1625-1645 : « La peste bovine frappe le bétail du royaume[6]. »</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>27 mars : Jacques Stuart, roi d'Écosse et d'Angleterre, meurt atteint de porphyrie congénitale selon certains auteurs, mais, selon d'autres, plus probablement affecté de coliques néphrétiques dues aux calculs rénaux que l'autopsie révélera.
+1625-1638 : En France, notamment en Anjou, en Bretagne, en Normandie, dans le Lyonnais, en Bourgogne et à Marseille, « associée à la guerre et à la disette, la peste fait de terribles ravages dans les villes et les campagnes ».
+1625-1645 : « La peste bovine frappe le bétail du royaume. »</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1625_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1625_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,42 +557,44 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin et botaniste Nicolas Ager (1568-1634) fait imprimer sa thèse sur les zoophytes (Disputatio de Zoophytis[7]).
-Marco Antonio Alaimo (1590-1662) donne un ouvrage sur « la maladie contagieuse qui sévit alors à Palerme et dans le royaume de Sicile[8] ».
-Pedro Camañes, médecin catalan, fait paraître à Valence ses commentaires de l'Ad Glauconem de medendi methodo, de Galien[9].
-Sous le titre de Tétrade des plus grièves maladies de tout le cerveau[10], publication de la traduction française de la Tetras gravissimorum totius capitis affectuum[11] (1606) de Joseph du Chesne.
-Sous la signature de Jérôme Comte, « docteur grec de la cité de Constantinople », parution à Toulouse, chez Raymond Colomiez[12], d'un almanach médical intitulé Théâtre des heures planétaires à tous les jours de l'an[13].
-Giovanni Battista Cortesi (it) (1553 ? – 1633 ?), médecin bolognais, professeur à Messine, fait paraître des « Miscellanées médicinales, réparties en dix dizaines[14] ».
-Parution à Leyde, chez Isaac Elzevir (en), de l'hymne au tabac (Hymnus tabaci[15]) du médecin et poète flamand Raphaël De Thoor (en) (c. 1565 – 1625).
-Sous le titre de Sylva chirurgiae[16], Peter Uffenbach (1566-1635) donne une traduction latine de la chirurgie (1596[17]) de Gabriele Ferrara (1543-1627).
-Jean Germain, médecin et chirurgien, frère de l’ordre des Minimes, publie son « anatomie des principaux animaux comparée à celle de l'Homme » (Trattato intorno alle figure anathomiche delli piu principali aimali […] con la simpatia et convenienza que hanno […] con il corpo humano[18]).
-Édition posthume du Mirabilium naturae liber de Rudolf Goclenius le Jeune[19].
-Alonso Gomez de la Parra y Arevalo fait paraître à Madrid ses Polyanthea medicis speciosa, chirurgis mirifica, études de médecine et de chirurgie[20].
-Philibert Guybert (c.1579-1633), médecin parisien, publie son Apothicaire charitable[21] qu'il a fait précéder, en 1623, d'un Médecin charitable, les deux œuvres devant être rééditées près de soixante fois jusqu'en 1678[22].
-Johannes Hornung (fl. 1611-1625), archiatre de Georges-Frédéric, margrave de Bade-Durlach, publie sa « Corbeille médicale » (Cista Medica), recueil de lettres de médecins allemands et de préceptes de médecine chimique et galénique[23],[24].
-André Le Gros, professeur de médecine à Paris, fait paraître un régime de santé, « avec la manière de se préserver contre la peste[25] ».
-Giovanni Manelfi[26] (1581-1654) fait paraître à Rome un traité sur les fièvres, sous le titre de De febribus theoria[27].
-Bernat Mas, médecin catalan, fait imprimer à Barcelone un traité de peste sous le titre de Orde brev y regiment molt util y profitos pera preservar y curar de peste[28].
-Henri de Mello, médecin de peste de la ville de Nantes, « publi[e] sur cette maladie un traité fort apprécié à l’époque[29] », sous le titre de Vraie description de la peste, avec les moyens de s’en préserver[30].
-Traduction latine des Instituciones para el aprovechamiento y examen de los algebristas (1599), de Luis Mercado (es) (1525-1611), par Charles Le Pois (1563-1633[31]).
-René Moreau (1587-1656), médecin parisien, donne une édition de la Schola Salernitana[32] attribuée à Jean de Milan, dont Guy Patin qualifiera de « beaux et doctes » les commentaires[33].
-Parution de la traduction française[34] de la Tabacologia (1622) de Johann Neander (de) (1596 ? – 1630 ?).
-Jean Pagès, docteur en médecine, fait paraître son ouvrage sur l'Œconomie des trois familles du monde sublunaire[35].
-Simeon Partlitz (de) (1590 – c.1640), astronome, mathématicien et médecin originaire de Bohême, fait paraître à Francfort un « système harmonique de médecine » (Medici systematis harmonici[36]).
-David de Planis Campy (1589-1644), médecin spagyriste, conseiller et chirurgien ordinaire du roi Louis XIII, publie son Epydimyomachie, ou Combat du chirurgien charitable contre la peste[37].
-Sous le titre de Quaestionum medicarum paradoxarum et endoxarum, juxta partes medicinae dispositarum centuria, Thomas Platter (1574-1628) donne une édition posthume de « questions médicales » rédigées par son demi-frère Félix[38].
-Michaël Reuden (1571-1630), médecin à Bamberg, fait imprimer une « lettre[39] à Adam Schwartz sur la gomme-gutte purgative[40] », substance récemment importée de Chine.
-Johann Conrad Rhumel (1574-1630), médecin ordinaire de la ville de Neumarkt, publie son étude sur les récentes épidémies qui ont sévi dans le Haut-Palatinat de Bavière[41].
-Galeotto Rubini dalla Mirandola, médecin à Bologne, publie un traité de peste (Trattato contra la peste nuovamente composto[42]).
-Charles Romatet, docteur en médecine, fait paraître les deux parties de sa Crisologia, qui traitent des maladies dans leur phase critique[43].
-Francisco Ruiz, médecin à Saragosse, en Espagne, publie son « Discours sur la composition du sucre rose[44] ».
-Giovanni Domenico Sala (it) (1579-1644), médecin italien, fait paraître ses réflexions « sur la nature de la médecine » (De natura medicinae libellus[45]).
-Santorio Santorio publie ses « Commentaires sur le premier chapitre du livre Ier du Canon d'Avicenne[46] ».
-Louis de Serres publie son Discours de la nature, causes, signes, et curation des empêchements de la conception, et de la stérilité des femmes[47],[48].
-Johann Stephan Strobelberger (1593 ? – 1630) et Joachim Burser (de) (1583-1639) publient une « concertation épistolaire sur la fièvre maligne ou à pétéchies[49] ».
-Johann Volck (1574–1631), médecin officiel de la ville de Gotha, en Thuringe, publie un ouvrage sur le « baume de Hanau », ou bitume de Lampertsloch[50],[51].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin et botaniste Nicolas Ager (1568-1634) fait imprimer sa thèse sur les zoophytes (Disputatio de Zoophytis).
+Marco Antonio Alaimo (1590-1662) donne un ouvrage sur « la maladie contagieuse qui sévit alors à Palerme et dans le royaume de Sicile ».
+Pedro Camañes, médecin catalan, fait paraître à Valence ses commentaires de l'Ad Glauconem de medendi methodo, de Galien.
+Sous le titre de Tétrade des plus grièves maladies de tout le cerveau, publication de la traduction française de la Tetras gravissimorum totius capitis affectuum (1606) de Joseph du Chesne.
+Sous la signature de Jérôme Comte, « docteur grec de la cité de Constantinople », parution à Toulouse, chez Raymond Colomiez, d'un almanach médical intitulé Théâtre des heures planétaires à tous les jours de l'an.
+Giovanni Battista Cortesi (it) (1553 ? – 1633 ?), médecin bolognais, professeur à Messine, fait paraître des « Miscellanées médicinales, réparties en dix dizaines ».
+Parution à Leyde, chez Isaac Elzevir (en), de l'hymne au tabac (Hymnus tabaci) du médecin et poète flamand Raphaël De Thoor (en) (c. 1565 – 1625).
+Sous le titre de Sylva chirurgiae, Peter Uffenbach (1566-1635) donne une traduction latine de la chirurgie (1596) de Gabriele Ferrara (1543-1627).
+Jean Germain, médecin et chirurgien, frère de l’ordre des Minimes, publie son « anatomie des principaux animaux comparée à celle de l'Homme » (Trattato intorno alle figure anathomiche delli piu principali aimali […] con la simpatia et convenienza que hanno […] con il corpo humano).
+Édition posthume du Mirabilium naturae liber de Rudolf Goclenius le Jeune.
+Alonso Gomez de la Parra y Arevalo fait paraître à Madrid ses Polyanthea medicis speciosa, chirurgis mirifica, études de médecine et de chirurgie.
+Philibert Guybert (c.1579-1633), médecin parisien, publie son Apothicaire charitable qu'il a fait précéder, en 1623, d'un Médecin charitable, les deux œuvres devant être rééditées près de soixante fois jusqu'en 1678.
+Johannes Hornung (fl. 1611-1625), archiatre de Georges-Frédéric, margrave de Bade-Durlach, publie sa « Corbeille médicale » (Cista Medica), recueil de lettres de médecins allemands et de préceptes de médecine chimique et galénique,.
+André Le Gros, professeur de médecine à Paris, fait paraître un régime de santé, « avec la manière de se préserver contre la peste ».
+Giovanni Manelfi (1581-1654) fait paraître à Rome un traité sur les fièvres, sous le titre de De febribus theoria.
+Bernat Mas, médecin catalan, fait imprimer à Barcelone un traité de peste sous le titre de Orde brev y regiment molt util y profitos pera preservar y curar de peste.
+Henri de Mello, médecin de peste de la ville de Nantes, « publi[e] sur cette maladie un traité fort apprécié à l’époque », sous le titre de Vraie description de la peste, avec les moyens de s’en préserver.
+Traduction latine des Instituciones para el aprovechamiento y examen de los algebristas (1599), de Luis Mercado (es) (1525-1611), par Charles Le Pois (1563-1633).
+René Moreau (1587-1656), médecin parisien, donne une édition de la Schola Salernitana attribuée à Jean de Milan, dont Guy Patin qualifiera de « beaux et doctes » les commentaires.
+Parution de la traduction française de la Tabacologia (1622) de Johann Neander (de) (1596 ? – 1630 ?).
+Jean Pagès, docteur en médecine, fait paraître son ouvrage sur l'Œconomie des trois familles du monde sublunaire.
+Simeon Partlitz (de) (1590 – c.1640), astronome, mathématicien et médecin originaire de Bohême, fait paraître à Francfort un « système harmonique de médecine » (Medici systematis harmonici).
+David de Planis Campy (1589-1644), médecin spagyriste, conseiller et chirurgien ordinaire du roi Louis XIII, publie son Epydimyomachie, ou Combat du chirurgien charitable contre la peste.
+Sous le titre de Quaestionum medicarum paradoxarum et endoxarum, juxta partes medicinae dispositarum centuria, Thomas Platter (1574-1628) donne une édition posthume de « questions médicales » rédigées par son demi-frère Félix.
+Michaël Reuden (1571-1630), médecin à Bamberg, fait imprimer une « lettre à Adam Schwartz sur la gomme-gutte purgative », substance récemment importée de Chine.
+Johann Conrad Rhumel (1574-1630), médecin ordinaire de la ville de Neumarkt, publie son étude sur les récentes épidémies qui ont sévi dans le Haut-Palatinat de Bavière.
+Galeotto Rubini dalla Mirandola, médecin à Bologne, publie un traité de peste (Trattato contra la peste nuovamente composto).
+Charles Romatet, docteur en médecine, fait paraître les deux parties de sa Crisologia, qui traitent des maladies dans leur phase critique.
+Francisco Ruiz, médecin à Saragosse, en Espagne, publie son « Discours sur la composition du sucre rose ».
+Giovanni Domenico Sala (it) (1579-1644), médecin italien, fait paraître ses réflexions « sur la nature de la médecine » (De natura medicinae libellus).
+Santorio Santorio publie ses « Commentaires sur le premier chapitre du livre Ier du Canon d'Avicenne ».
+Louis de Serres publie son Discours de la nature, causes, signes, et curation des empêchements de la conception, et de la stérilité des femmes,.
+Johann Stephan Strobelberger (1593 ? – 1630) et Joachim Burser (de) (1583-1639) publient une « concertation épistolaire sur la fièvre maligne ou à pétéchies ».
+Johann Volck (1574–1631), médecin officiel de la ville de Gotha, en Thuringe, publie un ouvrage sur le « baume de Hanau », ou bitume de Lampertsloch,.</t>
         </is>
       </c>
     </row>
@@ -588,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1625_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1625_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -606,13 +622,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>22 mars : Giovanni Andrea Moniglia (mort en 1700), médecin et homme de lettres italien[52].
-13 août : Rasmus Bartholin (mort en 1698), médecin danois, surtout connu pour sa découverte et son étude, en 1669, de la biréfringence du spath d'Islande[53],[54].
-14 septembre : Bernard Barnstorf (mort en 1686), médecin allemand, docteur de l'université de Rostock, auteur d'un ouvrage sur la palingénésie des végétaux (Programma de resuscitatione plantarum) publié après sa mort, en 1703[55].
-12 décembre : David Gregory (en) (mort en 1720), médecin et ingénieur anglais[56],[57].
-Claude Dufour de La Crespelière (mort en 1680), médecin et poète[58],[59].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>22 mars : Giovanni Andrea Moniglia (mort en 1700), médecin et homme de lettres italien.
+13 août : Rasmus Bartholin (mort en 1698), médecin danois, surtout connu pour sa découverte et son étude, en 1669, de la biréfringence du spath d'Islande,.
+14 septembre : Bernard Barnstorf (mort en 1686), médecin allemand, docteur de l'université de Rostock, auteur d'un ouvrage sur la palingénésie des végétaux (Programma de resuscitatione plantarum) publié après sa mort, en 1703.
+12 décembre : David Gregory (en) (mort en 1720), médecin et ingénieur anglais,.
+Claude Dufour de La Crespelière (mort en 1680), médecin et poète,.</t>
         </is>
       </c>
     </row>
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1625_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1625_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,11 +658,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Septembre : Thomas Lodge (né vers  1558[60]), poète, romancier et médecin anglais, auteur d'un traité de peste (A Treatise of the Plague) publié à Londres en 1603[61],[62].
-1625 (ou 1629[63] ?) : Raphaël De Thoor (en) (né vers 1565), médecin et homme de lettres flamand, auteur d'un poème sur le tabac (Hymnus tabaci[15]), publié pour la première fois à Leyde en 1625[64].
-Adriaan van de Spiegel (né en 1578), médecin, anatomiste et botaniste bruxellois[65].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Septembre : Thomas Lodge (né vers  1558), poète, romancier et médecin anglais, auteur d'un traité de peste (A Treatise of the Plague) publié à Londres en 1603,.
+1625 (ou 1629 ?) : Raphaël De Thoor (en) (né vers 1565), médecin et homme de lettres flamand, auteur d'un poème sur le tabac (Hymnus tabaci), publié pour la première fois à Leyde en 1625.
+Adriaan van de Spiegel (né en 1578), médecin, anatomiste et botaniste bruxellois.</t>
         </is>
       </c>
     </row>
